--- a/程序用_正式版_对照版/Boss.xlsx
+++ b/程序用_正式版_对照版/Boss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A77FF2-2F6C-4D62-814F-6A78852C08CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35251B7D-087A-40CA-866F-A924448174C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="840" windowWidth="36480" windowHeight="19665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1110" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boss" sheetId="1" r:id="rId1"/>
@@ -623,391 +623,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1" shapeId="0" xr:uid="{02A057A8-D8EB-4A8F-91CF-FCFDC2C34836}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>86176:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-W0  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">未装备
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W1  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>手枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>default)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">熔炉
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W2  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>步枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">铁骑
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W3  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>手枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">烈焰弹丸
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W4  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>狙击</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">贯日者
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W5  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>步枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">紫灵之光
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W6  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>狙击</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">纷飞
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W7  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>狙击</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">青鸾
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W8  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>步枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">电鸣丸
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W9  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>手枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>蜥燚</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1132,7 +747,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -1183,26 +798,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>[]WeaponType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropWeapons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropWeaponsWeights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器掉落权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>随机物掉落数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1215,14 +810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武器掉落数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropWeaponCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DropCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1303,24 +890,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W0</t>
-  </si>
-  <si>
-    <t>W0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E12|E13</t>
-  </si>
-  <si>
-    <t>E12|E13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1</t>
-  </si>
-  <si>
-    <t>1|1</t>
+    <t>E000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1884,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1897,24 +1467,21 @@
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>10</v>
@@ -1926,45 +1493,36 @@
         <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -1979,37 +1537,28 @@
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2022,187 +1571,153 @@
         <v>4</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>ROW(A5)-4</f>
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1500</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>1500</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
       <c r="L5">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>100</v>
-      </c>
-      <c r="P5">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>ROW(A6)-4</f>
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3000</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>3000</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
       <c r="L6">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="M6">
-        <v>30</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1000</v>
-      </c>
-      <c r="P6">
         <v>500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J5:XFD5 A5:H5 A6:B6">
-    <cfRule type="expression" dxfId="2" priority="13">
+  <conditionalFormatting sqref="A5:XFD5 A6:B6">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>MOD(#REF!,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>MOD(#REF!,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2215,13 +1730,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(#REF!,2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C6:C1048576 C1:C4">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2232,6 +1742,11 @@
           <x14:id>{E5CAE844-F521-4BCC-A053-54C0D3E62350}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:F6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(#REF!,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/程序用_正式版_对照版/Boss.xlsx
+++ b/程序用_正式版_对照版/Boss.xlsx
@@ -1,46 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35251B7D-087A-40CA-866F-A924448174C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1110" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Boss" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>86176</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +29,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -58,82 +38,29 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>如果</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ID</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>有重复</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>将报错</t>
+如果ID有重复, 将报错</t>
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="1" shapeId="0" xr:uid="{2C78EEDE-3E9E-4423-B964-5B866ED7D6C2}">
+    <comment ref="D4" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>86176:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 E0  </t>
@@ -141,9 +68,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">无
@@ -152,18 +77,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E1  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">传送门
@@ -172,18 +94,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E2  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">铁匠
@@ -192,18 +111,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E3  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>可破坏物</t>
@@ -211,18 +127,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>(</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>子弹</t>
@@ -230,9 +143,8 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">)
 E4  </t>
@@ -240,9 +152,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>可破坏物</t>
@@ -250,18 +160,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>(</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>金币</t>
@@ -269,9 +176,8 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">)
 E5  </t>
@@ -279,9 +185,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>可破坏物</t>
@@ -289,18 +193,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>(</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>药瓶</t>
@@ -308,9 +209,8 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">)
 E6  </t>
@@ -318,9 +218,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>可破坏物</t>
@@ -328,18 +226,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>(</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>技能点</t>
@@ -347,9 +242,8 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">)
 E7  </t>
@@ -357,9 +251,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">油桶
@@ -368,18 +260,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E8  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">毒桶
@@ -388,18 +277,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E9  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">金币
@@ -408,18 +294,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E10  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">精魄
@@ -428,18 +311,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E11  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">武器
@@ -448,18 +328,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E12  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>子弹</t>
@@ -467,18 +344,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">号
@@ -487,18 +361,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E13  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>子弹</t>
@@ -506,18 +377,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">号
@@ -526,18 +394,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E14  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>子弹</t>
@@ -545,18 +410,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">号
@@ -565,18 +427,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E15  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">药瓶
@@ -585,18 +444,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E16  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">主要技能点
@@ -605,18 +461,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">E17  </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>次要技能点</t>
@@ -628,13 +481,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -642,7 +495,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -652,53 +504,20 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>普通数据导出表的名称</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不会被用于任何数据输出名命名</t>
+普通数据导出表的名称, 不会被用于任何数据输出名命名</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -706,9 +525,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -716,15 +533,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="E2" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Davy:</t>
@@ -732,9 +547,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -747,171 +560,323 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>EnemyType</t>
+  </si>
+  <si>
+    <t>BossRoomType</t>
+  </si>
+  <si>
+    <t>DropElements</t>
+  </si>
+  <si>
+    <t>DropWeights</t>
+  </si>
+  <si>
+    <t>DropCount</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>EnemyAttackScale</t>
+  </si>
+  <si>
+    <t>EnemyHealthScale</t>
+  </si>
+  <si>
+    <t>EnemyDefense</t>
+  </si>
+  <si>
+    <t>EnemyArmor</t>
+  </si>
+  <si>
+    <t>GoldBaseMin</t>
+  </si>
+  <si>
+    <t>GoldBaseMax</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>SceneType</t>
+  </si>
+  <si>
+    <t>[]ElementType</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
   <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ListSpliter: "|"</t>
   </si>
   <si>
-    <t>[]int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]ElementType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropWeights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropElements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneType</t>
-  </si>
-  <si>
-    <t>BossRoomType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Boss类型</t>
   </si>
   <si>
     <t>Boss场景类型</t>
   </si>
   <si>
+    <t>随机物掉落</t>
+  </si>
+  <si>
+    <t>随机物掉落权重</t>
+  </si>
+  <si>
+    <t>随机物掉落数量</t>
+  </si>
+  <si>
+    <t>经验值奖励</t>
+  </si>
+  <si>
+    <t>怪物攻击倍率</t>
+  </si>
+  <si>
+    <t>怪物血量倍率</t>
+  </si>
+  <si>
+    <t>怪物防御值</t>
+  </si>
+  <si>
+    <t>怪物护甲</t>
+  </si>
+  <si>
+    <t>金币掉落下限</t>
+  </si>
+  <si>
+    <t>金币掉落上限</t>
+  </si>
+  <si>
+    <t>E40001</t>
+  </si>
+  <si>
     <t>Room1_BOSS</t>
   </si>
   <si>
+    <t>E000</t>
+  </si>
+  <si>
+    <t>E40002</t>
+  </si>
+  <si>
     <t>TableName: "Boss" Package: "neogame"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机物掉落数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机物掉落权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机物掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyAttackScale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyHealthScale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyDefense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldBaseMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldBaseMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验值奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物攻击倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物血量倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物防御值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币掉落上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币掉落下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E40001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E40002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -919,103 +884,38 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1024,37 +924,203 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1083,12 +1149,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,51 +1401,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="13" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="注释" xfId="1" builtinId="10"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1149,9 +1487,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1200,7 +1535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1233,26 +1568,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1285,23 +1603,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1443,24 +1744,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="34.75" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
@@ -1476,163 +1772,163 @@
     <col min="13" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:13">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5">
         <f>ROW(A5)-4</f>
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1641,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>30</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -1662,19 +1958,19 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6">
         <f>ROW(A6)-4</f>
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1683,40 +1979,32 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>30</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A5:XFD5 A6:B6">
-    <cfRule type="expression" dxfId="2" priority="14">
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(#REF!,2)=1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>MOD(#REF!,2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -1725,9 +2013,14 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E1B3F840-CE63-4B13-865C-B7CC62E5032B}</x14:id>
+          <x14:id>{5e2b4157-4cf2-4bd0-bb45-49bce45f5799}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:F6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(#REF!,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C1048576 C1:C4">
@@ -1739,24 +2032,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E5CAE844-F521-4BCC-A053-54C0D3E62350}</x14:id>
+          <x14:id>{8fcb2e8f-2185-4eb6-ae6f-8f774436e0d1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:F6">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="$A5:$XFD5 A6:B6">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>MOD(#REF!,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E1B3F840-CE63-4B13-865C-B7CC62E5032B}">
+          <x14:cfRule type="dataBar" id="{5e2b4157-4cf2-4bd0-bb45-49bce45f5799}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1767,7 +2061,7 @@
           <xm:sqref>C5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E5CAE844-F521-4BCC-A053-54C0D3E62350}">
+          <x14:cfRule type="dataBar" id="{8fcb2e8f-2185-4eb6-ae6f-8f774436e0d1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1784,24 +2078,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="4:5">
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>